--- a/resultados/resultados_slot03.xlsx
+++ b/resultados/resultados_slot03.xlsx
@@ -501,7 +501,7 @@
         <v>79</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3507776260375977</v>
+        <v>0.5771036148071289</v>
       </c>
       <c r="G2" t="n">
         <v>9.386503469464822e-06</v>
@@ -541,7 +541,7 @@
         <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3939697742462158</v>
+        <v>0.2679781913757324</v>
       </c>
       <c r="G3" t="n">
         <v>9.521141625100303e-06</v>
@@ -581,7 +581,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2428133487701416</v>
+        <v>0.1644573211669922</v>
       </c>
       <c r="G4" t="n">
         <v>2.430942035883556e-07</v>
@@ -621,7 +621,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3636205196380615</v>
+        <v>0.5068433284759521</v>
       </c>
       <c r="G5" t="n">
         <v>9.317602305452384e-06</v>
@@ -661,7 +661,7 @@
         <v>10000</v>
       </c>
       <c r="F6" t="n">
-        <v>43.40024518966675</v>
+        <v>44.89367985725403</v>
       </c>
       <c r="G6" t="n">
         <v>289283351.3809318</v>
@@ -701,7 +701,7 @@
         <v>10000</v>
       </c>
       <c r="F7" t="n">
-        <v>41.64802289009094</v>
+        <v>44.9600555896759</v>
       </c>
       <c r="G7" t="n">
         <v>289257939.3306161</v>
@@ -741,7 +741,7 @@
         <v>77</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3155848979949951</v>
+        <v>0.331528902053833</v>
       </c>
       <c r="G8" t="n">
         <v>8.857702415130882e-06</v>
@@ -781,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1257541179656982</v>
+        <v>0.1331405639648438</v>
       </c>
       <c r="G9" t="n">
         <v>4.372729025131697e-06</v>
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01117491722106934</v>
+        <v>0.01952576637268066</v>
       </c>
       <c r="G10" t="n">
         <v>9.838494622811718e-06</v>
@@ -861,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007271051406860352</v>
+        <v>0.01259303092956543</v>
       </c>
       <c r="G11" t="n">
         <v>7.343551053037096e-06</v>
@@ -901,7 +901,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01153874397277832</v>
+        <v>0.0206148624420166</v>
       </c>
       <c r="G12" t="n">
         <v>8.576847208571171e-06</v>
@@ -941,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01023674011230469</v>
+        <v>0.0189824104309082</v>
       </c>
       <c r="G13" t="n">
         <v>9.676249556629866e-06</v>
@@ -981,7 +981,7 @@
         <v>10000</v>
       </c>
       <c r="F14" t="n">
-        <v>4.715495109558105</v>
+        <v>5.051928520202637</v>
       </c>
       <c r="G14" t="n">
         <v>32294172.78931803</v>
@@ -1021,7 +1021,7 @@
         <v>10000</v>
       </c>
       <c r="F15" t="n">
-        <v>4.478554964065552</v>
+        <v>5.043101072311401</v>
       </c>
       <c r="G15" t="n">
         <v>32294166.76769388</v>
@@ -1061,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01147270202636719</v>
+        <v>0.01226234436035156</v>
       </c>
       <c r="G16" t="n">
         <v>8.578190161030941e-06</v>
@@ -1101,7 +1101,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008539915084838867</v>
+        <v>0.009768247604370117</v>
       </c>
       <c r="G17" t="n">
         <v>9.142350235161292e-06</v>
@@ -1141,7 +1141,7 @@
         <v>220</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02015256881713867</v>
+        <v>0.02895164489746094</v>
       </c>
       <c r="G18" t="n">
         <v>9.756365027126536e-06</v>
@@ -1181,7 +1181,7 @@
         <v>90</v>
       </c>
       <c r="F19" t="n">
-        <v>0.008971691131591797</v>
+        <v>0.01199078559875488</v>
       </c>
       <c r="G19" t="n">
         <v>8.224602928185185e-06</v>
@@ -1221,7 +1221,7 @@
         <v>126</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01996088027954102</v>
+        <v>0.0285336971282959</v>
       </c>
       <c r="G20" t="n">
         <v>9.891864938078292e-06</v>
@@ -1261,7 +1261,7 @@
         <v>70</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01073598861694336</v>
+        <v>0.01910805702209473</v>
       </c>
       <c r="G21" t="n">
         <v>9.773054654923668e-06</v>
@@ -1301,7 +1301,7 @@
         <v>10000</v>
       </c>
       <c r="F22" t="n">
-        <v>1.721785545349121</v>
+        <v>2.287322759628296</v>
       </c>
       <c r="G22" t="n">
         <v>3749648.083618432</v>
@@ -1341,7 +1341,7 @@
         <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>1.495779752731323</v>
+        <v>2.182833671569824</v>
       </c>
       <c r="G23" t="n">
         <v>3749646.811145986</v>
@@ -1381,7 +1381,7 @@
         <v>126</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01865720748901367</v>
+        <v>0.02620983123779297</v>
       </c>
       <c r="G24" t="n">
         <v>9.954165398903273e-06</v>
@@ -1421,7 +1421,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="n">
-        <v>0.009919404983520508</v>
+        <v>0.01422452926635742</v>
       </c>
       <c r="G25" t="n">
         <v>9.223225971334136e-06</v>
@@ -1461,7 +1461,7 @@
         <v>35</v>
       </c>
       <c r="F26" t="n">
-        <v>0.217038631439209</v>
+        <v>0.231745719909668</v>
       </c>
       <c r="G26" t="n">
         <v>9.03382448974008e-06</v>
@@ -1501,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1762640476226807</v>
+        <v>0.1761691570281982</v>
       </c>
       <c r="G27" t="n">
         <v>9.183989260909374e-06</v>
@@ -1541,7 +1541,7 @@
         <v>35</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2222275733947754</v>
+        <v>0.2297368049621582</v>
       </c>
       <c r="G28" t="n">
         <v>9.29196737894416e-06</v>
@@ -1581,7 +1581,7 @@
         <v>35</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2259814739227295</v>
+        <v>0.2460219860076904</v>
       </c>
       <c r="G29" t="n">
         <v>7.78502553966817e-06</v>
@@ -1621,7 +1621,7 @@
         <v>10000</v>
       </c>
       <c r="F30" t="n">
-        <v>65.21868562698364</v>
+        <v>70.23964214324951</v>
       </c>
       <c r="G30" t="n">
         <v>221455376.0877327</v>
@@ -1661,7 +1661,7 @@
         <v>10000</v>
       </c>
       <c r="F31" t="n">
-        <v>64.63994860649109</v>
+        <v>68.06172728538513</v>
       </c>
       <c r="G31" t="n">
         <v>221459069.3066123</v>
@@ -1701,7 +1701,7 @@
         <v>35</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2288846969604492</v>
+        <v>0.2507796287536621</v>
       </c>
       <c r="G32" t="n">
         <v>9.292883188334285e-06</v>
@@ -1741,7 +1741,7 @@
         <v>30</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1953518390655518</v>
+        <v>0.2241079807281494</v>
       </c>
       <c r="G33" t="n">
         <v>7.8892276320161e-06</v>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001684665679931641</v>
+        <v>0.002104759216308594</v>
       </c>
       <c r="G34" t="n">
         <v>8.982444689474659e-06</v>
@@ -1821,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001400470733642578</v>
+        <v>0.001935005187988281</v>
       </c>
       <c r="G35" t="n">
         <v>1.888275581404571e-06</v>
@@ -1861,7 +1861,7 @@
         <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0021514892578125</v>
+        <v>0.002798080444335938</v>
       </c>
       <c r="G36" t="n">
         <v>5.205052721219129e-06</v>
@@ -1901,7 +1901,7 @@
         <v>14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001901865005493164</v>
+        <v>0.002728700637817383</v>
       </c>
       <c r="G37" t="n">
         <v>4.567412299521291e-06</v>
@@ -1941,7 +1941,7 @@
         <v>10000</v>
       </c>
       <c r="F38" t="n">
-        <v>1.741685390472412</v>
+        <v>2.472578287124634</v>
       </c>
       <c r="G38" t="n">
         <v>3055301047.872537</v>
@@ -1981,7 +1981,7 @@
         <v>10000</v>
       </c>
       <c r="F39" t="n">
-        <v>1.529414176940918</v>
+        <v>2.197491645812988</v>
       </c>
       <c r="G39" t="n">
         <v>3055349661.832013</v>
@@ -2021,7 +2021,7 @@
         <v>14</v>
       </c>
       <c r="F40" t="n">
-        <v>0.002016305923461914</v>
+        <v>0.003146171569824219</v>
       </c>
       <c r="G40" t="n">
         <v>5.205102944550932e-06</v>
@@ -2061,7 +2061,7 @@
         <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.002670764923095703</v>
+        <v>0.003570318222045898</v>
       </c>
       <c r="G41" t="n">
         <v>4.442906943161732e-06</v>
@@ -2101,7 +2101,7 @@
         <v>21</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000518798828125</v>
+        <v>0.0006618499755859375</v>
       </c>
       <c r="G42" t="n">
         <v>9.393511814122366e-06</v>
@@ -2141,7 +2141,7 @@
         <v>14</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0003597736358642578</v>
+        <v>0.0004522800445556641</v>
       </c>
       <c r="G43" t="n">
         <v>8.740884166595461e-06</v>
@@ -2181,7 +2181,7 @@
         <v>23</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001513481140136719</v>
+        <v>0.001710653305053711</v>
       </c>
       <c r="G44" t="n">
         <v>9.619638623244716e-06</v>
@@ -2221,7 +2221,7 @@
         <v>23</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001436471939086914</v>
+        <v>0.001682758331298828</v>
       </c>
       <c r="G45" t="n">
         <v>7.881746327988217e-06</v>
@@ -2261,7 +2261,7 @@
         <v>10000</v>
       </c>
       <c r="F46" t="n">
-        <v>0.666928768157959</v>
+        <v>0.803764820098877</v>
       </c>
       <c r="G46" t="n">
         <v>158697620.3146892</v>
@@ -2301,7 +2301,7 @@
         <v>10000</v>
       </c>
       <c r="F47" t="n">
-        <v>0.646742582321167</v>
+        <v>0.948716402053833</v>
       </c>
       <c r="G47" t="n">
         <v>158697604.3461906</v>
@@ -2341,7 +2341,7 @@
         <v>23</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00146484375</v>
+        <v>0.001704931259155273</v>
       </c>
       <c r="G48" t="n">
         <v>9.620193053880995e-06</v>
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="F49" t="n">
-        <v>0.002253532409667969</v>
+        <v>0.002515554428100586</v>
       </c>
       <c r="G49" t="n">
         <v>8.303115264450052e-06</v>
@@ -2421,7 +2421,7 @@
         <v>176</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1475040912628174</v>
+        <v>0.1689693927764893</v>
       </c>
       <c r="G50" t="n">
         <v>9.93062770802346e-06</v>
@@ -2461,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1084928512573242</v>
+        <v>0.1182019710540771</v>
       </c>
       <c r="G51" t="n">
         <v>9.719535900029396e-06</v>
@@ -2501,7 +2501,7 @@
         <v>25</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0270836353302002</v>
+        <v>0.02486872673034668</v>
       </c>
       <c r="G52" t="n">
         <v>7.432157612344794e-06</v>
@@ -2541,7 +2541,7 @@
         <v>24</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02557921409606934</v>
+        <v>0.02356481552124023</v>
       </c>
       <c r="G53" t="n">
         <v>6.720017703671659e-06</v>
@@ -2581,7 +2581,7 @@
         <v>10000</v>
       </c>
       <c r="F54" t="n">
-        <v>9.897582292556763</v>
+        <v>10.60844945907593</v>
       </c>
       <c r="G54" t="n">
         <v>108276546144.5079</v>
@@ -2621,7 +2621,7 @@
         <v>10000</v>
       </c>
       <c r="F55" t="n">
-        <v>9.546223402023315</v>
+        <v>10.34039998054504</v>
       </c>
       <c r="G55" t="n">
         <v>108278266028.9192</v>
@@ -2661,7 +2661,7 @@
         <v>25</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02581930160522461</v>
+        <v>0.02538228034973145</v>
       </c>
       <c r="G56" t="n">
         <v>7.438737136964613e-06</v>
@@ -2701,7 +2701,7 @@
         <v>24</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02773857116699219</v>
+        <v>0.02754092216491699</v>
       </c>
       <c r="G57" t="n">
         <v>7.139918927603417e-06</v>
@@ -2741,7 +2741,7 @@
         <v>28</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01090097427368164</v>
+        <v>0.0117495059967041</v>
       </c>
       <c r="G58" t="n">
         <v>9.838494622811718e-06</v>
@@ -2781,7 +2781,7 @@
         <v>18</v>
       </c>
       <c r="F59" t="n">
-        <v>0.007054567337036133</v>
+        <v>0.007415056228637695</v>
       </c>
       <c r="G59" t="n">
         <v>7.343551053037096e-06</v>
@@ -2821,7 +2821,7 @@
         <v>26</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01169586181640625</v>
+        <v>0.01192784309387207</v>
       </c>
       <c r="G60" t="n">
         <v>8.576847208571171e-06</v>
@@ -2861,7 +2861,7 @@
         <v>23</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0104682445526123</v>
+        <v>0.01045012474060059</v>
       </c>
       <c r="G61" t="n">
         <v>9.676249556629866e-06</v>
@@ -2901,7 +2901,7 @@
         <v>10000</v>
       </c>
       <c r="F62" t="n">
-        <v>4.829609394073486</v>
+        <v>5.136175394058228</v>
       </c>
       <c r="G62" t="n">
         <v>32294172.78931803</v>
@@ -2941,7 +2941,7 @@
         <v>10000</v>
       </c>
       <c r="F63" t="n">
-        <v>4.616586685180664</v>
+        <v>4.911916732788086</v>
       </c>
       <c r="G63" t="n">
         <v>32294166.76769388</v>
@@ -2981,7 +2981,7 @@
         <v>26</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01189494132995605</v>
+        <v>0.0137941837310791</v>
       </c>
       <c r="G64" t="n">
         <v>8.578190161030941e-06</v>
@@ -3021,7 +3021,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>0.008828163146972656</v>
+        <v>0.01196384429931641</v>
       </c>
       <c r="G65" t="n">
         <v>9.142350235161292e-06</v>
@@ -3061,7 +3061,7 @@
         <v>21</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0005748271942138672</v>
+        <v>0.0006322860717773438</v>
       </c>
       <c r="G66" t="n">
         <v>9.393511814122366e-06</v>
@@ -3101,7 +3101,7 @@
         <v>14</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0003774166107177734</v>
+        <v>0.0004687309265136719</v>
       </c>
       <c r="G67" t="n">
         <v>8.740884166595461e-06</v>
@@ -3141,7 +3141,7 @@
         <v>23</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00151515007019043</v>
+        <v>0.001746892929077148</v>
       </c>
       <c r="G68" t="n">
         <v>9.619638623244716e-06</v>
@@ -3181,7 +3181,7 @@
         <v>23</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001412630081176758</v>
+        <v>0.001714229583740234</v>
       </c>
       <c r="G69" t="n">
         <v>7.881746327988217e-06</v>
@@ -3221,7 +3221,7 @@
         <v>10000</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6626458168029785</v>
+        <v>0.8068435192108154</v>
       </c>
       <c r="G70" t="n">
         <v>158697620.3146892</v>
@@ -3261,7 +3261,7 @@
         <v>10000</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6701347827911377</v>
+        <v>0.9104850292205811</v>
       </c>
       <c r="G71" t="n">
         <v>158697604.3461906</v>
@@ -3301,7 +3301,7 @@
         <v>23</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001552581787109375</v>
+        <v>0.001608610153198242</v>
       </c>
       <c r="G72" t="n">
         <v>9.620193053880995e-06</v>
@@ -3341,7 +3341,7 @@
         <v>20</v>
       </c>
       <c r="F73" t="n">
-        <v>0.002276897430419922</v>
+        <v>0.002405881881713867</v>
       </c>
       <c r="G73" t="n">
         <v>8.303115264450052e-06</v>
@@ -3381,7 +3381,7 @@
         <v>55</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01113700866699219</v>
+        <v>0.007741451263427734</v>
       </c>
       <c r="G74" t="n">
         <v>9.820879742562177e-06</v>
@@ -3421,7 +3421,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="n">
-        <v>0.005074024200439453</v>
+        <v>0.006637096405029297</v>
       </c>
       <c r="G75" t="n">
         <v>9.236076455268448e-06</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="F76" t="n">
-        <v>0.004937410354614258</v>
+        <v>0.006692647933959961</v>
       </c>
       <c r="G76" t="n">
         <v>8.420175026005225e-06</v>
@@ -3501,7 +3501,7 @@
         <v>30</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004801511764526367</v>
+        <v>0.00621342658996582</v>
       </c>
       <c r="G77" t="n">
         <v>8.750300114506693e-06</v>
@@ -3541,7 +3541,7 @@
         <v>10000</v>
       </c>
       <c r="F78" t="n">
-        <v>1.611519813537598</v>
+        <v>2.233734369277954</v>
       </c>
       <c r="G78" t="n">
         <v>2539844.674510326</v>
@@ -3581,7 +3581,7 @@
         <v>10000</v>
       </c>
       <c r="F79" t="n">
-        <v>1.6119544506073</v>
+        <v>2.337099552154541</v>
       </c>
       <c r="G79" t="n">
         <v>2539885.538876243</v>
@@ -3621,7 +3621,7 @@
         <v>32</v>
       </c>
       <c r="F80" t="n">
-        <v>0.004926204681396484</v>
+        <v>0.01020598411560059</v>
       </c>
       <c r="G80" t="n">
         <v>8.423766648747501e-06</v>
@@ -3661,7 +3661,7 @@
         <v>27</v>
       </c>
       <c r="F81" t="n">
-        <v>0.006239175796508789</v>
+        <v>0.01694488525390625</v>
       </c>
       <c r="G81" t="n">
         <v>8.207159385129309e-06</v>

--- a/resultados/resultados_slot03.xlsx
+++ b/resultados/resultados_slot03.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6537666522.476533</v>
+        <v>654926088.2605356</v>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6850919723510742</v>
+        <v>0.02260899543762207</v>
       </c>
       <c r="G2" t="n">
-        <v>3948</v>
+        <v>1473</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6538214586.124658</v>
+        <v>654950577.7596854</v>
       </c>
       <c r="E3" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3652317523956299</v>
+        <v>0.01457500457763672</v>
       </c>
       <c r="G3" t="n">
-        <v>3948</v>
+        <v>1473</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>654926088.2605356</v>
+        <v>44724660.27811407</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01963591575622559</v>
+        <v>0.02274203300476074</v>
       </c>
       <c r="G4" t="n">
-        <v>1473</v>
+        <v>1086</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>654950577.7596854</v>
+        <v>44735156.50494859</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01816582679748535</v>
+        <v>0.01542854309082031</v>
       </c>
       <c r="G5" t="n">
-        <v>1473</v>
+        <v>1086</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>67579067.21497774</v>
+        <v>3112885321254.005</v>
       </c>
       <c r="E6" t="n">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0425410270690918</v>
+        <v>0.3588168621063232</v>
       </c>
       <c r="G6" t="n">
-        <v>1083</v>
+        <v>2003</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67845967.03713822</v>
+        <v>3115651354786.666</v>
       </c>
       <c r="E7" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01436471939086914</v>
+        <v>0.2733302116394043</v>
       </c>
       <c r="G7" t="n">
-        <v>1083</v>
+        <v>2003</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4085202504.101666</v>
+        <v>6537666522.476533</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F8" t="n">
-        <v>0.341472864151001</v>
+        <v>0.6137120723724365</v>
       </c>
       <c r="G8" t="n">
-        <v>4884</v>
+        <v>3948</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,16 +749,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4085245570.077303</v>
+        <v>6538214586.124658</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2618873119354248</v>
+        <v>0.4607248306274414</v>
       </c>
       <c r="G9" t="n">
-        <v>4884</v>
+        <v>3948</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>76569996762.00502</v>
+        <v>3485075325.977184</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00296330451965332</v>
+        <v>0.00222468376159668</v>
       </c>
       <c r="G10" t="n">
-        <v>1074</v>
+        <v>420</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76570318161.79057</v>
+        <v>3485103329.846988</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003155946731567383</v>
+        <v>0.001317501068115234</v>
       </c>
       <c r="G11" t="n">
-        <v>1074</v>
+        <v>420</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3485075325.977184</v>
+        <v>67579067.21497774</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006139278411865234</v>
+        <v>0.07413887977600098</v>
       </c>
       <c r="G12" t="n">
-        <v>420</v>
+        <v>1083</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3485103329.846988</v>
+        <v>67845967.03713822</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0005955696105957031</v>
+        <v>0.02515172958374023</v>
       </c>
       <c r="G13" t="n">
-        <v>420</v>
+        <v>1083</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3112885321254.005</v>
+        <v>654926088.2605356</v>
       </c>
       <c r="E14" t="n">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4092903137207031</v>
+        <v>0.03079676628112793</v>
       </c>
       <c r="G14" t="n">
-        <v>2003</v>
+        <v>1473</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3115651354786.666</v>
+        <v>654950577.7596854</v>
       </c>
       <c r="E15" t="n">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>0.199580192565918</v>
+        <v>0.01926302909851074</v>
       </c>
       <c r="G15" t="n">
-        <v>2003</v>
+        <v>1473</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>654926088.2605356</v>
+        <v>4085202504.101666</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01883149147033691</v>
+        <v>0.4120795726776123</v>
       </c>
       <c r="G16" t="n">
-        <v>1473</v>
+        <v>4884</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1045,16 +1045,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>654950577.7596854</v>
+        <v>4085245570.077303</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01219797134399414</v>
+        <v>0.323805570602417</v>
       </c>
       <c r="G17" t="n">
-        <v>1473</v>
+        <v>4884</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1088,7 +1088,7 @@
         <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008106231689453125</v>
+        <v>0.002191543579101562</v>
       </c>
       <c r="G18" t="n">
         <v>420</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1125,7 +1125,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0005476474761962891</v>
+        <v>0.00138545036315918</v>
       </c>
       <c r="G19" t="n">
         <v>420</v>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>44724660.27811407</v>
+        <v>76569996762.00502</v>
       </c>
       <c r="E20" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01897335052490234</v>
+        <v>0.005293369293212891</v>
       </c>
       <c r="G20" t="n">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>44735156.50494859</v>
+        <v>76570318161.79057</v>
       </c>
       <c r="E21" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01708889007568359</v>
+        <v>0.00421452522277832</v>
       </c>
       <c r="G21" t="n">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
